--- a/landerosua/evidence.xlsx
+++ b/landerosua/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lande\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6c20f8644ae710/Рабочий стол/111/noda/gameofnft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365D7695-7CF0-4690-92FD-3F0D87D90266}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -140,6 +122,48 @@
   </si>
   <si>
     <t>uptick1x6fp0h2cw82gq68rkz432ak0wv5rvfjzzhrgyt</t>
+  </si>
+  <si>
+    <t>landerosGoN</t>
+  </si>
+  <si>
+    <t>C67424DE0C9A33169431D154EF13D919FBD1CF91B471A4235FAF898279B91C7A</t>
+  </si>
+  <si>
+    <t>C2148FA850761AE4669B12638A367014541877656DB90068613A787767667545</t>
+  </si>
+  <si>
+    <t>landerosGoN01</t>
+  </si>
+  <si>
+    <t>landerosGoN02</t>
+  </si>
+  <si>
+    <t>860C85D7A6E3EE6CFAF1B1DBDA721A773C3FC4FDCBEEE37C11F5199326B8A344</t>
+  </si>
+  <si>
+    <t>291A21175B7D8E15D557BA32AAD433044CE672C369638218FA37A5934E7E6700</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>62B0C28D7D55650093B347EBD1C5FE872593B18062CC94824DA95AA0EAE37DB8</t>
+  </si>
+  <si>
+    <t>ibc/E8497616125E97550485C786E64AD14DE49AFBE17BD7F5B1933804A88D9DD7C9</t>
+  </si>
+  <si>
+    <t>DB0ACAFD86DDED8DAB7D92315A6FF010B041E051CC49DFA950D4F6576EAB39C4</t>
+  </si>
+  <si>
+    <t>DDB1E78D79A3F02BD7262F37418B353994550D194D93420B61B1FB8B592F1287</t>
+  </si>
+  <si>
+    <t>wasm.juno1aff4yjmkp9lqce596pujxnknfthrpyj3c0n7dmm7q6rr0gz37pzsz49e9z</t>
   </si>
 </sst>
 </file>
@@ -534,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,51 +576,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1031,11 +1055,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1048,10 +1075,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1292,9 +1319,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1315,13 +1344,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1376,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1361,20 +1403,21 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1385,7 +1428,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1410,16 +1455,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1434,13 +1479,15 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,16 +1506,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1530,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1509,16 +1558,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1582,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/landerosua/evidence.xlsx
+++ b/landerosua/evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6c20f8644ae710/Рабочий стол/111/noda/gameofnft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365D7695-7CF0-4690-92FD-3F0D87D90266}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97EA577-377E-440C-95A8-F8D79D413C8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,6 +266,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1480,7 +1484,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,16 +1510,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1535,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1546,7 @@
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,18 +1560,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/landerosua/evidence.xlsx
+++ b/landerosua/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6c20f8644ae710/Рабочий стол/111/noda/gameofnft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97EA577-377E-440C-95A8-F8D79D413C8C}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BC93C3-B651-4EA2-92B9-5D0A636D4DDA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,47 +38,27 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -164,13 +144,178 @@
   </si>
   <si>
     <t>wasm.juno1aff4yjmkp9lqce596pujxnknfthrpyj3c0n7dmm7q6rr0gz37pzsz49e9z</t>
+  </si>
+  <si>
+    <t>ibc/5585E95F90D92C12B4BE066238D26F183A669462E74AE57BAA5B4CFC576D19A6</t>
+  </si>
+  <si>
+    <t>ibc/7F871080B451C0749A4F4FBCCE131BB3D5CF8EC7EB8DE4D42CB813B9134EA2CF</t>
+  </si>
+  <si>
+    <t>ibc/ED106F85F82662C4ADAD989AD9CBA38AB16668B747D9600C4A9E68BC67B95BB0</t>
+  </si>
+  <si>
+    <t>nft7</t>
+  </si>
+  <si>
+    <t>nft8</t>
+  </si>
+  <si>
+    <t>nft9</t>
+  </si>
+  <si>
+    <t>ibc/D895BFCD5FBE6E2809850A6032C34BE9475513C7BFB1B2FB77799FDF4F916B33</t>
+  </si>
+  <si>
+    <t>nft10</t>
+  </si>
+  <si>
+    <t>nft11</t>
+  </si>
+  <si>
+    <t>nft12</t>
+  </si>
+  <si>
+    <t>ibc/AF34B0EC480C9036EDC2F79674A4E1F1A00B71EA3F88FF4AF2E2B166DAE18C03</t>
+  </si>
+  <si>
+    <t>ibc/7D614F4883094EE115E501A45B641AAE6FBCD73FC5A3D443A903E93AA498E05E</t>
+  </si>
+  <si>
+    <t>603234F0E6D23A90A18C4C27FE7F2199F65648E00455F400D5ACA107A24A7A27</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>ED88C10FC0E4AAAFC57915AE881538FC83575C10A5502D1E67D40ECFF84354F1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>CF3A5136DECDC00F05D63BA05BA5A40E719E6DFA7B66F711B83F04455626563D</t>
+  </si>
+  <si>
+    <t>64D32ACBAB7068479ED3C72D1BBF42D49B83AE457A62F399B7E3297C67952A90</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>A6D371EE886475F2A99451C0054E9F4D15046E31DBC9553D20631A8E0A8DB834</t>
+  </si>
+  <si>
+    <t>0AE63669CA31A662B80CBF100A393C1D26A71D129E32C5228821A6DC860E3404</t>
+  </si>
+  <si>
+    <t>0B8A6E7DEC503B296AA1668AABF0143D86A3DC5F6B5208DE4878973E3B0899C7</t>
+  </si>
+  <si>
+    <t>144C5D5AC3820EAE603E71AD623BC5F95AE103DD01E4D472D0653F120F8D0616</t>
+  </si>
+  <si>
+    <t>5E53959E28074F076B91805454E3C2114A3E6E1713D3782DC62AA1B708EEA63F</t>
+  </si>
+  <si>
+    <t>3717EADECF5B8A506411FFF2AA1691796B408A868692DF63E304D6DFEF0E4C00</t>
+  </si>
+  <si>
+    <t>76E75A82761C78F68550ECA0691C8EDE57735D8641BDEB8DC0E94A8ADCDE4039</t>
+  </si>
+  <si>
+    <t>24B15AB2EDE0E039260F6B0A40727B37496D926095CB1847D6F7B62791DCF3AC</t>
+  </si>
+  <si>
+    <t>F64928AF4B541DB1E875FBEE53DE038FFEC76D1DBF3AA04E16ACDB69C3773D27</t>
+  </si>
+  <si>
+    <t>ED8EC484C8DAB502243BBC47FF3278FB4B9199E68113AB480C04AC6A7497E0D9</t>
+  </si>
+  <si>
+    <t>52D4BEFA022633F7904FEE2F64038FD9942992EF17BFBB229C4EF01B994EAF93</t>
+  </si>
+  <si>
+    <t>E4A86A9138C6C4E38854A4CFF525F076408940212ADC8ACFDF32DD22515B37F5</t>
+  </si>
+  <si>
+    <t>638E8D85E0F91BAFDB463E86969B575CFE2C53EA9C27951A6607F6E00B9247E7</t>
+  </si>
+  <si>
+    <t>CA7A49C3E60D918092433CD16E7D0BA56B91D18C7F2F9894E25B8953DC03C90D</t>
+  </si>
+  <si>
+    <t>83BE02C106F0831BF8DFC980ACDA17E43D6A600A0DE31CE068971D41F28BDE8C</t>
+  </si>
+  <si>
+    <t>726979CFECA4125CEF69C906FA5D7749ADA5C83D382596E389D6D0419176C6FA</t>
+  </si>
+  <si>
+    <t>D4BC2EE78497A77D70AE1B86AE9AB88D06D1160E4136E41A55A410166A06B4DA</t>
+  </si>
+  <si>
+    <t>395869A0BAB1FBF63E1F541FDF0A33E9B27515A0DF9F86AF4A43ED176245E2D1</t>
+  </si>
+  <si>
+    <t>F354B939DC4E7DC0B3AFFA4A80F6275FAB6AFBB21BBF9F9B96BF2ADB03E10566</t>
+  </si>
+  <si>
+    <t>FF05D24830FEE5046C52F9915E475DCE51176C6ABE8C5B4BB017C3E4EB42B8C1</t>
+  </si>
+  <si>
+    <t>58136E51A5590867032DA8F90216DB63FD54DAA0796A209091CE5DB04D0E41E6</t>
+  </si>
+  <si>
+    <t>FDF8F45C9FFF1E143DFB5A4BC15798D41E5BA13A9F9E9F0F4A363478E9A07F82</t>
+  </si>
+  <si>
+    <t>2C9AD6935C578079C9F0217632C07B4AE608525A05C21F8A50B56CF7B31AC9E1</t>
+  </si>
+  <si>
+    <t>EFB4582EB2C565898AACD4D5C1489ADA477D0EC0ECF09DE37A20CE76367A0E21</t>
+  </si>
+  <si>
+    <t>CD2B3B292ACA7B856213428C2054C15B81D3DCC3DFD8399DBC339CDBE43E2683</t>
+  </si>
+  <si>
+    <t>7178DB8BB5BD04D1738B973FF0B7ECFDC21C7681253F24A25B22868B4A783B61</t>
+  </si>
+  <si>
+    <t>9AC3BCA5F5006D11B59B25D75D626862316E4B348D8AF546F890D1082EBBEB6D</t>
+  </si>
+  <si>
+    <t>9E597F0344DA512EED979B7CD5A25F1E21E68FFB5E49A88FE578DBFB2FEB95E9</t>
+  </si>
+  <si>
+    <t>F62FBEB7EE796F79A0DD008E699A90E1E94D7A31340BA4CB603D7D99094B361F</t>
+  </si>
+  <si>
+    <t>6716D961EA1FF960819823BF11CDF7B03958DF372B08B583C9C70595AFB595B8</t>
+  </si>
+  <si>
+    <t>633A1C80C4875F8B8C8CCE3BFE27925413EE99A470F3612F2C938D7E2472D640</t>
+  </si>
+  <si>
+    <t>5397FA4E4C86C2937B05C0DDF7861DF4D0A369FB05C4E06DE392619E4BA4C409</t>
+  </si>
+  <si>
+    <t>5913FB62134BDBF332EC143F7E8FF364DD726FCDFE0041F0EB477504FDB45D0D</t>
+  </si>
+  <si>
+    <t>82B39EE19BA9A4A5B08EC78B77CE99D4D9690EDC08CE0E4DFA9FEFE220536E8A</t>
+  </si>
+  <si>
+    <t>B58CC4633AF69EFAD19B321C6DD27C0141149E7EF606BAC49218797078FD947B</t>
+  </si>
+  <si>
+    <t>2D4A63E3B32E71D80B85374E83AFBD816D7941E7778A05A4BBB94016E807F659</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +328,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -249,6 +401,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -269,6 +425,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -580,51 +740,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +799,129 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -649,126 +931,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -781,13 +955,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -796,25 +972,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -827,13 +1017,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -842,25 +1034,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -875,11 +1081,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -888,25 +1096,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -921,11 +1135,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,25 +1150,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -965,13 +1187,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -980,25 +1204,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1011,13 +1249,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1026,25 +1266,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1074,15 +1328,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1095,13 +1349,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,25 +1366,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1141,13 +1411,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,25 +1428,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1189,11 +1475,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1203,12 +1491,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1511,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1237,12 +1527,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1547,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1270,13 +1562,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1583,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1305,12 +1599,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CAE57C-398F-4177-A467-89E1B9395B55}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1340,32 +1664,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1396,27 +1720,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1448,27 +1772,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1499,27 +1823,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1858,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1551,66 +1875,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,28 +1948,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/landerosua/evidence.xlsx
+++ b/landerosua/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6c20f8644ae710/Рабочий стол/111/noda/gameofnft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BC93C3-B651-4EA2-92B9-5D0A636D4DDA}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{E807ABD6-6B6A-42B1-9047-F43B7780CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D30A4EC-DB84-4930-AF59-4D2C2857FE83}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>TxHash</t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t>2D4A63E3B32E71D80B85374E83AFBD816D7941E7778A05A4BBB94016E807F659</t>
+  </si>
+  <si>
+    <t>48570692AAD2B0D5499553562FF9053D0EC79029E48289E923A3B9C4FCA938BD</t>
+  </si>
+  <si>
+    <t>15020B93277C36E19C48F473446281284601E41BDE45AA55D9B6AF077C8CD851</t>
+  </si>
+  <si>
+    <t>871BBF2138C9676E6A2D3923869B13078FB9D239A79E7C8D4AE881440200EC6D</t>
+  </si>
+  <si>
+    <t>A8F36CC774F901286E91967BB6525CBC5E7EB748186D320D10C4C3703B551FA5</t>
+  </si>
+  <si>
+    <t>14B49D7651D6F4EE84F04C24EF1C948F5B77571D4E7AF246ADF08C104BA6CEF6</t>
+  </si>
+  <si>
+    <t>C3DA2D3289FB89B329FFF55AE4F7FA83F75BE4300C75191388B8213C0791747F</t>
   </si>
 </sst>
 </file>
@@ -429,6 +447,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1079,10 +1105,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,6 +1149,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1133,10 +1167,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,6 +1211,14 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1189,7 +1231,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1349,10 +1391,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,6 +1443,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1411,10 +1469,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,6 +1519,22 @@
       </c>
       <c r="B5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
